--- a/00.Manuscript/supplementary/table.xlsx
+++ b/00.Manuscript/supplementary/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\multi-CRC-fungi\00.Manuscript\supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A3F541-16BE-4BBC-99AB-C2C04A19A86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3197827-3D81-4F46-827F-928F2AF69696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,6 +341,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,21 +366,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,7 +698,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -722,7 +722,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -768,7 +768,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -814,7 +814,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="20"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -860,7 +860,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -906,7 +906,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="19"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -952,7 +952,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -998,7 +998,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="19"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1044,7 +1044,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="20"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1090,7 +1090,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="19"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1136,7 +1136,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1">
-      <c r="A22" s="21"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="14" t="s">
         <v>24</v>
       </c>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1229,168 +1229,168 @@
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>69.27</v>
+        <v>64.11</v>
       </c>
       <c r="C3" s="1">
-        <v>60.29</v>
+        <v>63.95</v>
       </c>
       <c r="D3" s="1">
-        <v>58.11</v>
+        <v>67.56</v>
       </c>
       <c r="E3" s="1">
-        <v>45.37</v>
+        <v>53.8</v>
       </c>
       <c r="F3" s="1">
-        <v>74.510000000000005</v>
+        <v>66.489999999999995</v>
       </c>
       <c r="G3" s="1">
-        <v>55.94</v>
+        <v>60.18</v>
       </c>
       <c r="H3" s="1">
-        <v>55.79</v>
+        <v>59.81</v>
       </c>
       <c r="I3" s="1">
-        <v>61.23</v>
-      </c>
-      <c r="J3" s="25">
-        <v>60.06</v>
+        <v>60.71</v>
+      </c>
+      <c r="J3" s="21">
+        <v>62.08</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>64.11</v>
+        <v>69.27</v>
       </c>
       <c r="C4" s="1">
-        <v>63.95</v>
+        <v>60.29</v>
       </c>
       <c r="D4" s="1">
-        <v>67.56</v>
+        <v>58.11</v>
       </c>
       <c r="E4" s="1">
-        <v>53.8</v>
+        <v>45.37</v>
       </c>
       <c r="F4" s="1">
-        <v>66.489999999999995</v>
+        <v>74.510000000000005</v>
       </c>
       <c r="G4" s="1">
-        <v>60.18</v>
+        <v>55.94</v>
       </c>
       <c r="H4" s="1">
-        <v>59.81</v>
+        <v>55.79</v>
       </c>
       <c r="I4" s="1">
-        <v>60.71</v>
-      </c>
-      <c r="J4" s="25">
-        <v>62.08</v>
+        <v>61.23</v>
+      </c>
+      <c r="J4" s="21">
+        <v>60.06</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>71.89</v>
+        <v>65.08</v>
       </c>
       <c r="C5" s="1">
-        <v>67.19</v>
+        <v>74.44</v>
       </c>
       <c r="D5" s="1">
-        <v>64.13</v>
+        <v>56.15</v>
       </c>
       <c r="E5" s="1">
-        <v>52.5</v>
+        <v>72.22</v>
       </c>
       <c r="F5" s="1">
-        <v>63.28</v>
+        <v>75.22</v>
       </c>
       <c r="G5" s="1">
-        <v>64.959999999999994</v>
+        <v>66.41</v>
       </c>
       <c r="H5" s="1">
-        <v>67.239999999999995</v>
+        <v>69.040000000000006</v>
       </c>
       <c r="I5" s="1">
-        <v>68.97</v>
-      </c>
-      <c r="J5" s="25">
-        <v>65.02</v>
+        <v>63.77</v>
+      </c>
+      <c r="J5" s="21">
+        <v>67.790000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>62.39</v>
+        <v>71.89</v>
       </c>
       <c r="C6" s="1">
-        <v>64.08</v>
+        <v>67.19</v>
       </c>
       <c r="D6" s="1">
-        <v>55.57</v>
+        <v>64.13</v>
       </c>
       <c r="E6" s="1">
-        <v>75.930000000000007</v>
+        <v>52.5</v>
       </c>
       <c r="F6" s="1">
-        <v>62.75</v>
+        <v>63.28</v>
       </c>
       <c r="G6" s="1">
-        <v>64.25</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="H6" s="1">
-        <v>65.42</v>
+        <v>67.239999999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>61.35</v>
-      </c>
-      <c r="J6" s="25">
-        <v>63.97</v>
+        <v>68.97</v>
+      </c>
+      <c r="J6" s="21">
+        <v>65.02</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>65.08</v>
+        <v>62.39</v>
       </c>
       <c r="C7" s="1">
-        <v>74.44</v>
+        <v>64.08</v>
       </c>
       <c r="D7" s="1">
-        <v>56.15</v>
+        <v>55.57</v>
       </c>
       <c r="E7" s="1">
-        <v>72.22</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="F7" s="1">
-        <v>75.22</v>
+        <v>62.75</v>
       </c>
       <c r="G7" s="1">
-        <v>66.41</v>
+        <v>64.25</v>
       </c>
       <c r="H7" s="1">
-        <v>69.040000000000006</v>
+        <v>65.42</v>
       </c>
       <c r="I7" s="1">
-        <v>63.77</v>
-      </c>
-      <c r="J7" s="25">
-        <v>67.790000000000006</v>
+        <v>61.35</v>
+      </c>
+      <c r="J7" s="21">
+        <v>63.97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1421,39 +1421,39 @@
       <c r="I8" s="1">
         <v>55.24</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="21">
         <v>62.37</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="19">
         <v>66.31</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="19">
         <v>65.3</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="19">
         <v>59.77</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>61.77</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="19">
         <v>69.06</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="19">
         <v>61.48</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="19">
         <v>62.8</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="19">
         <v>61.88</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="22">
         <v>63.55</v>
       </c>
     </row>
@@ -1461,5 +1461,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>